--- a/CustomLocalization-RU/Localization/RogueTech/RU/MechAffinity/LocalizationDef.xlsx
+++ b/CustomLocalization-RU/Localization/RogueTech/RU/MechAffinity/LocalizationDef.xlsx
@@ -814,7 +814,7 @@
     <t>MechAffinity.pilot_painshunt.description</t>
   </si>
   <si>
-    <t>Pilot is Immune to Injurys from Overheat, Internal Explosion and DNI Feedback. 25% Pilot Upkeep.</t>
+    <t>Pilot is Immune to Injuries from Overheat, Internal Explosion and DNI Feedback. 25% Pilot Upkeep.</t>
   </si>
   <si>
     <t>У пилота иммунитет к травмам от перегрева, внутренних подрывов и обратной отдачи от DNI. 25% стоимость содержания пилота.</t>
@@ -884,14 +884,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+  <cellXfs count="5">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" quotePrefix="1" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" quotePrefix="1" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1197,23 +1194,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="C115" sqref="C115"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="78.28515625" customWidth="1" style="3"/>
+    <col min="4" max="4" width="9.140625" customWidth="1" style="3"/>
+    <col min="5" max="16384" width="9.140625" customWidth="1" style="3"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -1230,7 +1229,7 @@
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -1247,7 +1246,7 @@
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -1264,7 +1263,7 @@
       <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -1278,10 +1277,10 @@
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -1298,7 +1297,7 @@
       <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -1312,10 +1311,10 @@
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -1332,7 +1331,7 @@
       <c r="B8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -1349,7 +1348,7 @@
       <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -1366,7 +1365,7 @@
       <c r="B10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -1383,7 +1382,7 @@
       <c r="B11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -1400,7 +1399,7 @@
       <c r="B12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -1414,10 +1413,10 @@
       <c r="A13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -1434,7 +1433,7 @@
       <c r="B14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -1451,7 +1450,7 @@
       <c r="B15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -1468,7 +1467,7 @@
       <c r="B16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -1482,10 +1481,10 @@
       <c r="A17" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -1502,7 +1501,7 @@
       <c r="B18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -1519,7 +1518,7 @@
       <c r="B19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -1536,7 +1535,7 @@
       <c r="B20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="3" t="s">
@@ -1553,7 +1552,7 @@
       <c r="B21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -1570,7 +1569,7 @@
       <c r="B22" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="3" t="s">
         <v>56</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -1584,10 +1583,10 @@
       <c r="A23" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D23" s="3" t="s">
@@ -1604,7 +1603,7 @@
       <c r="B24" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D24" s="3" t="s">
@@ -1621,7 +1620,7 @@
       <c r="B25" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="3" t="s">
         <v>65</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -1638,7 +1637,7 @@
       <c r="B26" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D26" s="3" t="s">
@@ -1652,10 +1651,10 @@
       <c r="A27" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D27" s="3" t="s">
@@ -1672,7 +1671,7 @@
       <c r="B28" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D28" s="3" t="s">
@@ -1689,7 +1688,7 @@
       <c r="B29" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D29" s="3" t="s">
@@ -1706,7 +1705,7 @@
       <c r="B30" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D30" s="3" t="s">
@@ -1723,7 +1722,7 @@
       <c r="B31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D31" s="3" t="s">
@@ -1740,7 +1739,7 @@
       <c r="B32" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D32" s="3" t="s">
@@ -1754,10 +1753,10 @@
       <c r="A33" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="3" t="s">
         <v>81</v>
       </c>
       <c r="D33" s="3" t="s">
@@ -1774,7 +1773,7 @@
       <c r="B34" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D34" s="3" t="s">
@@ -1791,7 +1790,7 @@
       <c r="B35" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D35" s="3" t="s">
@@ -1808,7 +1807,7 @@
       <c r="B36" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D36" s="3" t="s">
@@ -1825,7 +1824,7 @@
       <c r="B37" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D37" s="3" t="s">
@@ -1842,7 +1841,7 @@
       <c r="B38" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="3" t="s">
         <v>92</v>
       </c>
       <c r="D38" s="3" t="s">
@@ -1856,10 +1855,10 @@
       <c r="A39" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D39" s="3" t="s">
@@ -1876,7 +1875,7 @@
       <c r="B40" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D40" s="3" t="s">
@@ -1893,7 +1892,7 @@
       <c r="B41" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D41" s="3" t="s">
@@ -1910,7 +1909,7 @@
       <c r="B42" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D42" s="3" t="s">
@@ -1927,7 +1926,7 @@
       <c r="B43" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D43" s="3" t="s">
@@ -1944,7 +1943,7 @@
       <c r="B44" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D44" s="3" t="s">
@@ -1961,7 +1960,7 @@
       <c r="B45" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D45" s="3" t="s">
@@ -1978,7 +1977,7 @@
       <c r="B46" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="3" t="s">
         <v>104</v>
       </c>
       <c r="D46" s="3" t="s">
@@ -1992,10 +1991,10 @@
       <c r="A47" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="3" t="s">
         <v>107</v>
       </c>
       <c r="D47" s="3" t="s">
@@ -2012,7 +2011,7 @@
       <c r="B48" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="3" t="s">
         <v>110</v>
       </c>
       <c r="D48" s="3" t="s">
@@ -2026,10 +2025,10 @@
       <c r="A49" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="2" t="s">
         <v>113</v>
       </c>
       <c r="D49" s="3" t="s">
@@ -2046,7 +2045,7 @@
       <c r="B50" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D50" s="3" t="s">
@@ -2063,7 +2062,7 @@
       <c r="B51" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D51" s="3" t="s">
@@ -2080,7 +2079,7 @@
       <c r="B52" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D52" s="3" t="s">
@@ -2094,10 +2093,10 @@
       <c r="A53" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="2" t="s">
         <v>121</v>
       </c>
       <c r="D53" s="3" t="s">
@@ -2114,7 +2113,7 @@
       <c r="B54" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D54" s="3" t="s">
@@ -2131,7 +2130,7 @@
       <c r="B55" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="3" t="s">
         <v>125</v>
       </c>
       <c r="D55" s="3" t="s">
@@ -2148,7 +2147,7 @@
       <c r="B56" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D56" s="3" t="s">
@@ -2165,7 +2164,7 @@
       <c r="B57" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="3" t="s">
         <v>125</v>
       </c>
       <c r="D57" s="3" t="s">
@@ -2182,7 +2181,7 @@
       <c r="B58" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D58" s="3" t="s">
@@ -2199,7 +2198,7 @@
       <c r="B59" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="3" t="s">
         <v>125</v>
       </c>
       <c r="D59" s="3" t="s">
@@ -2216,7 +2215,7 @@
       <c r="B60" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D60" s="3" t="s">
@@ -2233,7 +2232,7 @@
       <c r="B61" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="3" t="s">
         <v>125</v>
       </c>
       <c r="D61" s="3" t="s">
@@ -2250,7 +2249,7 @@
       <c r="B62" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D62" s="3" t="s">
@@ -2267,7 +2266,7 @@
       <c r="B63" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" s="3" t="s">
         <v>125</v>
       </c>
       <c r="D63" s="3" t="s">
@@ -2284,7 +2283,7 @@
       <c r="B64" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D64" s="3" t="s">
@@ -2301,7 +2300,7 @@
       <c r="B65" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="3" t="s">
         <v>125</v>
       </c>
       <c r="D65" s="3" t="s">
@@ -2318,7 +2317,7 @@
       <c r="B66" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="3" t="s">
         <v>138</v>
       </c>
       <c r="D66" s="3" t="s">
@@ -2332,10 +2331,10 @@
       <c r="A67" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C67" s="2" t="s">
         <v>141</v>
       </c>
       <c r="D67" s="3" t="s">
@@ -2352,7 +2351,7 @@
       <c r="B68" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C68" s="3" t="s">
         <v>144</v>
       </c>
       <c r="D68" s="3" t="s">
@@ -2366,10 +2365,10 @@
       <c r="A69" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="C69" s="2" t="s">
         <v>147</v>
       </c>
       <c r="D69" s="3" t="s">
@@ -2386,7 +2385,7 @@
       <c r="B70" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C70" s="3" t="s">
         <v>150</v>
       </c>
       <c r="D70" s="3" t="s">
@@ -2403,7 +2402,7 @@
       <c r="B71" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C71" s="3" t="s">
         <v>152</v>
       </c>
       <c r="D71" s="3" t="s">
@@ -2420,7 +2419,7 @@
       <c r="B72" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C72" s="3" t="s">
         <v>150</v>
       </c>
       <c r="D72" s="3" t="s">
@@ -2437,7 +2436,7 @@
       <c r="B73" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="3" t="s">
         <v>152</v>
       </c>
       <c r="D73" s="3" t="s">
@@ -2454,7 +2453,7 @@
       <c r="B74" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C74" s="3" t="s">
         <v>157</v>
       </c>
       <c r="D74" s="3" t="s">
@@ -2471,7 +2470,7 @@
       <c r="B75" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C75" s="3" t="s">
         <v>159</v>
       </c>
       <c r="D75" s="3" t="s">
@@ -2488,7 +2487,7 @@
       <c r="B76" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C76" s="3" t="s">
         <v>162</v>
       </c>
       <c r="D76" s="3" t="s">
@@ -2502,10 +2501,10 @@
       <c r="A77" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="C77" s="2" t="s">
         <v>165</v>
       </c>
       <c r="D77" s="3" t="s">
@@ -2522,7 +2521,7 @@
       <c r="B78" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C78" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D78" s="3" t="s">
@@ -2539,7 +2538,7 @@
       <c r="B79" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C79" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D79" s="3" t="s">
@@ -2556,7 +2555,7 @@
       <c r="B80" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C80" s="3" t="s">
         <v>170</v>
       </c>
       <c r="D80" s="3" t="s">
@@ -2570,10 +2569,10 @@
       <c r="A81" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C81" s="6" t="s">
+      <c r="C81" s="2" t="s">
         <v>173</v>
       </c>
       <c r="D81" s="3" t="s">
@@ -2590,7 +2589,7 @@
       <c r="B82" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C82" s="3" t="s">
         <v>176</v>
       </c>
       <c r="D82" s="3" t="s">
@@ -2604,10 +2603,10 @@
       <c r="A83" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B83" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C83" s="6" t="s">
+      <c r="C83" s="2" t="s">
         <v>179</v>
       </c>
       <c r="D83" s="3" t="s">
@@ -2624,7 +2623,7 @@
       <c r="B84" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C84" s="3" t="s">
         <v>182</v>
       </c>
       <c r="D84" s="3" t="s">
@@ -2641,7 +2640,7 @@
       <c r="B85" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C85" s="3" t="s">
         <v>185</v>
       </c>
       <c r="D85" s="3" t="s">
@@ -2658,7 +2657,7 @@
       <c r="B86" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C86" s="3" t="s">
         <v>188</v>
       </c>
       <c r="D86" s="3" t="s">
@@ -2675,7 +2674,7 @@
       <c r="B87" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C87" s="3" t="s">
         <v>191</v>
       </c>
       <c r="D87" s="3" t="s">
@@ -2692,7 +2691,7 @@
       <c r="B88" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C88" s="3" t="s">
         <v>194</v>
       </c>
       <c r="D88" s="3" t="s">
@@ -2706,10 +2705,10 @@
       <c r="A89" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B89" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C89" s="6" t="s">
+      <c r="C89" s="2" t="s">
         <v>197</v>
       </c>
       <c r="D89" s="3" t="s">
@@ -2726,7 +2725,7 @@
       <c r="B90" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="C90" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D90" s="3" t="s">
@@ -2743,7 +2742,7 @@
       <c r="B91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="C91" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D91" s="3" t="s">
@@ -2760,7 +2759,7 @@
       <c r="B92" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C92" s="7" t="s">
+      <c r="C92" s="3" t="s">
         <v>202</v>
       </c>
       <c r="D92" s="3" t="s">
@@ -2777,7 +2776,7 @@
       <c r="B93" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="C93" s="3" t="s">
         <v>205</v>
       </c>
       <c r="D93" s="3" t="s">
@@ -2794,7 +2793,7 @@
       <c r="B94" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C94" s="7" t="s">
+      <c r="C94" s="3" t="s">
         <v>208</v>
       </c>
       <c r="D94" s="3" t="s">
@@ -2808,10 +2807,10 @@
       <c r="A95" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B95" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C95" s="6" t="s">
+      <c r="C95" s="2" t="s">
         <v>211</v>
       </c>
       <c r="D95" s="3" t="s">
@@ -2828,7 +2827,7 @@
       <c r="B96" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C96" s="7" t="s">
+      <c r="C96" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D96" s="3" t="s">
@@ -2845,7 +2844,7 @@
       <c r="B97" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C97" s="7" t="s">
+      <c r="C97" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D97" s="3" t="s">
@@ -2862,7 +2861,7 @@
       <c r="B98" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="C98" s="7" t="s">
+      <c r="C98" s="3" t="s">
         <v>216</v>
       </c>
       <c r="D98" s="3" t="s">
@@ -2879,7 +2878,7 @@
       <c r="B99" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="C99" s="7" t="s">
+      <c r="C99" s="3" t="s">
         <v>219</v>
       </c>
       <c r="D99" s="3" t="s">
@@ -2896,7 +2895,7 @@
       <c r="B100" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="C100" s="7" t="s">
+      <c r="C100" s="3" t="s">
         <v>222</v>
       </c>
       <c r="D100" s="3" t="s">
@@ -2910,10 +2909,10 @@
       <c r="A101" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B101" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C101" s="6" t="s">
+      <c r="C101" s="2" t="s">
         <v>225</v>
       </c>
       <c r="D101" s="3" t="s">
@@ -2930,7 +2929,7 @@
       <c r="B102" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C102" s="7" t="s">
+      <c r="C102" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D102" s="3" t="s">
@@ -2947,7 +2946,7 @@
       <c r="B103" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C103" s="7" t="s">
+      <c r="C103" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D103" s="3" t="s">
@@ -2964,7 +2963,7 @@
       <c r="B104" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C104" s="7" t="s">
+      <c r="C104" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D104" s="3" t="s">
@@ -2981,7 +2980,7 @@
       <c r="B105" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C105" s="7" t="s">
+      <c r="C105" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D105" s="3" t="s">
@@ -2998,7 +2997,7 @@
       <c r="B106" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="C106" s="7" t="s">
+      <c r="C106" s="3" t="s">
         <v>232</v>
       </c>
       <c r="D106" s="3" t="s">
@@ -3012,10 +3011,10 @@
       <c r="A107" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="B107" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C107" s="6" t="s">
+      <c r="C107" s="2" t="s">
         <v>235</v>
       </c>
       <c r="D107" s="3" t="s">
@@ -3029,10 +3028,10 @@
       <c r="A108" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="B108" s="4" t="s">
+      <c r="B108" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C108" s="6" t="s">
+      <c r="C108" s="2" t="s">
         <v>238</v>
       </c>
       <c r="D108" s="3" t="s">
@@ -3049,7 +3048,7 @@
       <c r="B109" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C109" s="7" t="s">
+      <c r="C109" s="3" t="s">
         <v>240</v>
       </c>
       <c r="D109" s="3" t="s">
@@ -3066,7 +3065,7 @@
       <c r="B110" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C110" s="7" t="s">
+      <c r="C110" s="3" t="s">
         <v>150</v>
       </c>
       <c r="D110" s="3" t="s">
@@ -3083,7 +3082,7 @@
       <c r="B111" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C111" s="7" t="s">
+      <c r="C111" s="3" t="s">
         <v>152</v>
       </c>
       <c r="D111" s="3" t="s">
@@ -3100,7 +3099,7 @@
       <c r="B112" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C112" s="7" t="s">
+      <c r="C112" s="3" t="s">
         <v>245</v>
       </c>
       <c r="D112" s="3" t="s">
@@ -3117,7 +3116,7 @@
       <c r="B113" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="C113" s="7" t="s">
+      <c r="C113" s="3" t="s">
         <v>248</v>
       </c>
       <c r="D113" s="3" t="s">
@@ -3134,7 +3133,7 @@
       <c r="B114" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="C114" s="7" t="s">
+      <c r="C114" s="3" t="s">
         <v>251</v>
       </c>
       <c r="D114" s="3" t="s">
@@ -3148,10 +3147,10 @@
       <c r="A115" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="B115" s="4" t="s">
+      <c r="B115" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C115" s="6" t="s">
+      <c r="C115" s="2" t="s">
         <v>254</v>
       </c>
       <c r="D115" s="3" t="s">
@@ -3168,7 +3167,7 @@
       <c r="B116" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="C116" s="7" t="s">
+      <c r="C116" s="3" t="s">
         <v>257</v>
       </c>
       <c r="D116" s="3" t="s">
@@ -3185,7 +3184,7 @@
       <c r="B117" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="C117" s="7" t="s">
+      <c r="C117" s="3" t="s">
         <v>260</v>
       </c>
       <c r="D117" s="3" t="s">
@@ -3202,7 +3201,7 @@
       <c r="B118" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C118" s="7" t="s">
+      <c r="C118" s="3" t="s">
         <v>263</v>
       </c>
       <c r="D118" s="3" t="s">
@@ -3216,10 +3215,10 @@
       <c r="A119" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B119" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C119" s="7" t="s">
+      <c r="C119" s="3" t="s">
         <v>266</v>
       </c>
       <c r="E119" s="3">
@@ -3233,7 +3232,7 @@
       <c r="B120" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C120" s="7" t="s">
+      <c r="C120" s="3" t="s">
         <v>269</v>
       </c>
       <c r="E120" s="3">
@@ -3247,10 +3246,10 @@
       <c r="B121" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C121" s="5" t="s">
+      <c r="C121" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="D121" s="2" t="s">
+      <c r="D121" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E121" s="3">
@@ -3264,10 +3263,10 @@
       <c r="B122" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="C122" s="5" t="s">
+      <c r="C122" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="D122" s="2" t="s">
+      <c r="D122" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E122" s="3">
@@ -3281,10 +3280,10 @@
       <c r="B123" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C123" s="5" t="s">
+      <c r="C123" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="D123" s="2" t="s">
+      <c r="D123" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E123" s="3">
@@ -3298,10 +3297,10 @@
       <c r="B124" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="C124" s="5" t="s">
+      <c r="C124" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="D124" s="2" t="s">
+      <c r="D124" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E124" s="3">
